--- a/ESPD/codelists/ESPD-CodeLists_v3.3.0.xlsx
+++ b/ESPD/codelists/ESPD-CodeLists_v3.3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STOICDR\Documents\espd-demo\ESPD\codelists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8723182-92A8-47CF-9A7F-8FA985A451A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EBCE62-E321-46F9-93C0-8A2D7DA587ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="884" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AccessRight" sheetId="199" r:id="rId1"/>
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="350">
   <si>
     <t>ListID</t>
   </si>
@@ -932,9 +932,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>https://github.com/ESPD/ESPD-EDM</t>
-  </si>
-  <si>
     <t>BACH Banque de France</t>
   </si>
   <si>
@@ -1328,33 +1325,6 @@
     <t>3.3.0</t>
   </si>
   <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/codelists/gc/BooleanGUIControlType.gc</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.3.0</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/codelists/gc/CriterionElementType.gc</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/codelists/gc/EOIDType.gc</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/codelists/gc/FinancialRatioType.gc</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/codelists/gc/ProfileExecutionID.gc</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/codelists/gc/PropertyGroupType.gc</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/codelists/gc/ResponseDataType.gc</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/</t>
-  </si>
-  <si>
     <t>https://github.com/OP-TED/ESPD-EDM</t>
   </si>
   <si>
@@ -1374,6 +1344,33 @@
   </si>
   <si>
     <t>http://publications.europa.eu/resource/distribution/access-right/20220316-0/xml/gc/AccessRight.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.3.0/</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.3.0/codelists/gc/BooleanGUIControlType.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.3.0</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.3.0/codelists/gc/CriterionElementType.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.3.0/codelists/gc/EOIDType.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.3.0/codelists/gc/FinancialRatioType.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.3.0/codelists/gc/ProfileExecutionID.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.3.0/codelists/gc/PropertyGroupType.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.3.0/codelists/gc/ResponseDataType.gc</t>
   </si>
 </sst>
 </file>
@@ -7553,8 +7550,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="12.75"/>
@@ -7567,7 +7564,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -7576,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -7585,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -7594,7 +7591,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -7603,7 +7600,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -7612,7 +7609,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C6" s="14"/>
       <c r="F6" s="21"/>
@@ -7622,7 +7619,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C7" s="14"/>
     </row>
@@ -7631,7 +7628,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -7640,7 +7637,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -7732,42 +7729,42 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" t="s">
         <v>298</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -7791,11 +7788,12 @@
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{555DAFF2-9653-40F0-8731-F9639B427847}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7822,7 +7820,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7830,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7838,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7846,7 +7844,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7854,7 +7852,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7862,7 +7860,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7870,7 +7868,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7878,7 +7876,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7886,7 +7884,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -7928,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -7936,7 +7934,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -7944,7 +7942,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -7952,7 +7950,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -7960,7 +7958,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -7968,7 +7966,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -8076,7 +8074,7 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I10" s="6"/>
       <c r="L10" t="s">
@@ -8094,7 +8092,7 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L11" t="s">
         <v>58</v>
@@ -8111,7 +8109,7 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L12" t="s">
         <v>60</v>
@@ -8128,7 +8126,7 @@
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L13" t="s">
         <v>62</v>
@@ -8145,7 +8143,7 @@
         <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L14" t="s">
         <v>64</v>
@@ -8162,7 +8160,7 @@
         <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L15" t="s">
         <v>66</v>
@@ -8179,7 +8177,7 @@
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L16" t="s">
         <v>75</v>
@@ -8196,7 +8194,7 @@
         <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s">
         <v>76</v>
@@ -8213,7 +8211,7 @@
         <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L18" t="s">
         <v>78</v>
@@ -8230,7 +8228,7 @@
         <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s">
         <v>80</v>
@@ -8247,7 +8245,7 @@
         <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s">
         <v>82</v>
@@ -8264,7 +8262,7 @@
         <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
         <v>84</v>
@@ -8281,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s">
         <v>86</v>
@@ -8298,7 +8296,7 @@
         <v>97</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -8322,7 +8320,7 @@
         <v>99</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -8362,7 +8360,7 @@
         <v>101</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -8402,7 +8400,7 @@
         <v>102</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -8442,7 +8440,7 @@
         <v>103</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -8482,7 +8480,7 @@
         <v>104</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -8522,7 +8520,7 @@
         <v>105</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -8562,7 +8560,7 @@
         <v>107</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -8602,7 +8600,7 @@
         <v>109</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -8642,7 +8640,7 @@
         <v>111</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -8682,7 +8680,7 @@
         <v>115</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -8722,7 +8720,7 @@
         <v>117</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -8762,7 +8760,7 @@
         <v>122</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -8802,7 +8800,7 @@
         <v>123</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -8842,7 +8840,7 @@
         <v>124</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -8882,7 +8880,7 @@
         <v>125</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -8913,9 +8911,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://github.com/ESPD/ESPD-EDM" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://github.com/ESPD/ESPD-EDM/tree/v3.3.0" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/codelists/gc/FinancialRatioType.gc" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -8946,7 +8944,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -8955,7 +8953,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -8964,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8972,7 +8970,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -8981,7 +8979,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -8990,7 +8988,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -8999,7 +8997,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C7" s="14"/>
     </row>
@@ -9008,7 +9006,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -9017,7 +9015,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -9054,7 +9052,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -9063,7 +9061,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -9072,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -9081,7 +9079,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -9090,7 +9088,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -9099,7 +9097,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -9108,7 +9106,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C7" s="14"/>
     </row>
@@ -9117,7 +9115,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -9151,7 +9149,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -9186,7 +9184,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -9196,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9206,7 +9204,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -9216,7 +9214,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -9226,7 +9224,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -9236,7 +9234,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -9329,139 +9327,139 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
         <v>206</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>207</v>
       </c>
-      <c r="C8" t="s">
-        <v>208</v>
-      </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="6"/>
       <c r="L8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
         <v>209</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>210</v>
       </c>
-      <c r="C9" t="s">
-        <v>211</v>
-      </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="14.25">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J11" s="6"/>
       <c r="L11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="14.25">
       <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
         <v>212</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>213</v>
       </c>
-      <c r="C12" t="s">
-        <v>214</v>
-      </c>
       <c r="D12" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25">
       <c r="A13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" t="s">
         <v>246</v>
       </c>
-      <c r="B13" t="s">
-        <v>247</v>
-      </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F13" s="6"/>
       <c r="J13" s="6"/>
       <c r="L13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25">
       <c r="A14" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25">
       <c r="A15" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="D15" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -9471,7 +9469,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -9492,16 +9490,16 @@
     </row>
     <row r="16" spans="1:28" ht="14.25">
       <c r="A16" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="D16" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -9511,7 +9509,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -9532,59 +9530,59 @@
     </row>
     <row r="17" spans="1:12" ht="14.25">
       <c r="A17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" t="s">
         <v>325</v>
       </c>
-      <c r="B17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17" t="s">
-        <v>326</v>
-      </c>
       <c r="D17" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.25">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://github.com/ESPD/ESPD-EDM/tree/v3.3.0" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/codelists/gc/ProfileExecutionID.gc" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -9622,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -9631,7 +9629,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -9640,7 +9638,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -9649,7 +9647,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -9658,7 +9656,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -9759,7 +9757,7 @@
         <v>162</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -9799,7 +9797,7 @@
         <v>163</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -9839,7 +9837,7 @@
         <v>164</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -9870,8 +9868,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://github.com/ESPD/ESPD-EDM/tree/v3.3.0" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/codelists/gc/PropertyGroupType.gc" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -9911,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9921,7 +9919,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -9931,7 +9929,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -9941,7 +9939,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -9951,7 +9949,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -10053,7 +10051,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -10093,7 +10091,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="10"/>
@@ -10133,7 +10131,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -10167,13 +10165,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -10183,7 +10181,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -10213,7 +10211,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -10253,7 +10251,7 @@
         <v>167</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -10293,7 +10291,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -10333,7 +10331,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -10373,7 +10371,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -10413,7 +10411,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -10453,7 +10451,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -10487,13 +10485,13 @@
         <v>30</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -10533,7 +10531,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -10573,7 +10571,7 @@
         <v>165</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -10613,7 +10611,7 @@
         <v>129</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -10653,7 +10651,7 @@
         <v>146</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -10693,7 +10691,7 @@
         <v>147</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -10733,7 +10731,7 @@
         <v>145</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -10773,7 +10771,7 @@
         <v>144</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -10813,7 +10811,7 @@
         <v>143</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -10853,7 +10851,7 @@
         <v>141</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -10893,7 +10891,7 @@
         <v>142</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -10933,7 +10931,7 @@
         <v>149</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -10964,16 +10962,16 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>218</v>
-      </c>
       <c r="C31" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -10983,7 +10981,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
@@ -11004,16 +11002,16 @@
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -11023,7 +11021,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -11044,16 +11042,16 @@
     </row>
     <row r="33" spans="1:28" ht="14.25">
       <c r="A33" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>241</v>
-      </c>
       <c r="C33" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -11063,7 +11061,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
@@ -11084,8 +11082,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/codelists/gc/ResponseDataType.gc" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://github.com/ESPD/ESPD-EDM/tree/v3.3.0" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -11100,8 +11098,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="12.75"/>
@@ -11115,7 +11113,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -11124,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -11133,7 +11131,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -11142,7 +11140,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -11151,7 +11149,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -11160,7 +11158,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -11252,16 +11250,16 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -11271,7 +11269,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -11292,16 +11290,16 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -11311,7 +11309,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -11332,16 +11330,16 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -11351,7 +11349,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -11372,16 +11370,16 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -11391,7 +11389,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -11412,16 +11410,16 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>236</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -11431,7 +11429,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -11452,16 +11450,16 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -11471,7 +11469,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -11493,8 +11491,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://github.com/OP-TED/ESDP-EDM/tree/v3.3.0/codelists/gc/BooleanGUIControlType.gc" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -11509,7 +11507,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -11523,7 +11521,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -11532,7 +11530,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -11541,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -11550,7 +11548,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -11559,7 +11557,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -11568,7 +11566,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -11577,7 +11575,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -11586,7 +11584,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -11595,7 +11593,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -11631,7 +11629,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -11641,7 +11639,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -11651,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -11661,7 +11659,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -11671,7 +11669,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -11681,7 +11679,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="21"/>
@@ -11691,7 +11689,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -11701,7 +11699,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -11711,7 +11709,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -11760,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -11770,7 +11768,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -11780,7 +11778,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -11790,7 +11788,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -11800,7 +11798,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -11902,7 +11900,7 @@
         <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L8" t="s">
         <v>169</v>
@@ -11919,7 +11917,7 @@
         <v>170</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -11959,7 +11957,7 @@
         <v>171</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -11999,7 +11997,7 @@
         <v>172</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -12039,7 +12037,7 @@
         <v>173</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -12079,7 +12077,7 @@
         <v>174</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -12119,7 +12117,7 @@
         <v>175</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -12159,7 +12157,7 @@
         <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L15" t="s">
         <v>176</v>
@@ -12176,7 +12174,7 @@
         <v>177</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -12216,7 +12214,7 @@
         <v>154</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -12256,7 +12254,7 @@
         <v>157</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -12287,8 +12285,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://github.com/ESPD/ESPD-EDM/tree/v3.3.0" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/codelists/gc/CriterionElementType.gc" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -12317,7 +12315,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -12327,7 +12325,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -12337,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -12347,7 +12345,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -12357,7 +12355,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -12367,7 +12365,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -12377,7 +12375,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -12387,7 +12385,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -12397,7 +12395,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -12446,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -12456,7 +12454,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -12466,7 +12464,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -12476,7 +12474,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -12486,7 +12484,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -12496,7 +12494,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -12506,7 +12504,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12514,7 +12512,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -12550,7 +12548,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -12560,7 +12558,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -12570,7 +12568,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -12580,7 +12578,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -12590,7 +12588,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -12600,7 +12598,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -12610,7 +12608,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -12620,7 +12618,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -12630,7 +12628,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -12676,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -12686,7 +12684,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -12696,7 +12694,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -12706,7 +12704,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -12716,7 +12714,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -12818,7 +12816,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -12858,7 +12856,7 @@
         <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -12898,7 +12896,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -12938,7 +12936,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -12978,7 +12976,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="11"/>
@@ -13009,8 +13007,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://github.com/ESPD/ESPD-EDM/tree/v3.3.0" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://github.com/ESPD/ESPD-EDM/tree/v3.3.0/codelists/gc/EOIDType.gc" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
